--- a/Scenarios.xlsx
+++ b/Scenarios.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajatsharma/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rajatsharma/Desktop/untitled folder 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -982,10 +982,10 @@
     </r>
   </si>
   <si>
-    <t>Service to be run at 12 am everyday to sync the user details and id</t>
-  </si>
-  <si>
     <t>To be tested as lodhi sir is working on it</t>
+  </si>
+  <si>
+    <t>Servic'se to be run at 12 am everyday to sync the user details and id</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1425,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D157" sqref="D157"/>
+      <selection pane="bottomLeft" activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3576,10 +3576,10 @@
         <v>146</v>
       </c>
       <c r="B157" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
